--- a/reports/Hyperparameter Search.xlsx
+++ b/reports/Hyperparameter Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\project-list\bert-hfacs\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611AE916-5FB4-413E-BB34-8ADFF2C3214C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD828F77-66D0-4E4F-A59E-D3F51384AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="1980" windowWidth="27000" windowHeight="12405" firstSheet="1" activeTab="1" xr2:uid="{54CD176D-C1B4-4E30-AF68-ACE6B3BE431B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{54CD176D-C1B4-4E30-AF68-ACE6B3BE431B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hyperparameter Search-Train" sheetId="2" r:id="rId1"/>
@@ -886,31 +886,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -931,79 +979,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1517,160 +1517,160 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="T3" s="27" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="T3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="T4" s="27" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="37"/>
+      <c r="T4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="21"/>
-      <c r="T5" s="27" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="37"/>
+      <c r="T5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="13" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="9" t="s">
+      <c r="N6" s="8"/>
+      <c r="O6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="15"/>
+      <c r="R6" s="42"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="4"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="17">
         <v>10</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17">
         <v>0.01</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17">
         <v>8</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="40">
+      <c r="J7" s="17"/>
+      <c r="K7" s="14">
         <v>52</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="44">
-        <v>50</v>
-      </c>
-      <c r="N7" s="45"/>
-      <c r="O7" s="8">
-        <v>50</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8">
-        <v>50</v>
-      </c>
-      <c r="R7" s="12"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="38">
+        <v>50</v>
+      </c>
+      <c r="N7" s="39"/>
+      <c r="O7" s="17">
+        <v>50</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17">
+        <v>50</v>
+      </c>
+      <c r="R7" s="18"/>
       <c r="S7" s="2"/>
       <c r="T7" t="s">
         <v>19</v>
@@ -1681,39 +1681,39 @@
       <c r="AK7" s="4"/>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="8">
+      <c r="C8" s="17"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="17">
         <v>10</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17">
         <v>0.01</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17">
         <v>12</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="40">
-        <v>50</v>
-      </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="44">
-        <v>50</v>
-      </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="8">
-        <v>50</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8">
-        <v>50</v>
-      </c>
-      <c r="R8" s="12"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="14">
+        <v>50</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="38">
+        <v>50</v>
+      </c>
+      <c r="N8" s="39"/>
+      <c r="O8" s="17">
+        <v>50</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
+        <v>50</v>
+      </c>
+      <c r="R8" s="18"/>
       <c r="S8" s="2"/>
       <c r="T8" t="s">
         <v>88</v>
@@ -1724,39 +1724,39 @@
       <c r="AK8" s="4"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="16">
         <v>3</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="8">
+      <c r="C9" s="17"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="17">
         <v>10</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17">
         <v>0.01</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
         <v>16</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="40">
-        <v>50</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="44">
-        <v>50</v>
-      </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="8">
-        <v>50</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8">
-        <v>50</v>
-      </c>
-      <c r="R9" s="12"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="14">
+        <v>50</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="38">
+        <v>50</v>
+      </c>
+      <c r="N9" s="39"/>
+      <c r="O9" s="17">
+        <v>50</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17">
+        <v>50</v>
+      </c>
+      <c r="R9" s="18"/>
       <c r="S9" s="2"/>
       <c r="T9" t="s">
         <v>20</v>
@@ -1767,39 +1767,39 @@
       <c r="AK9" s="4"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="8">
+      <c r="C10" s="17"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="17">
         <v>10</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
         <v>8</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="40">
+      <c r="J10" s="17"/>
+      <c r="K10" s="14">
         <v>53</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="44">
+      <c r="L10" s="15"/>
+      <c r="M10" s="38">
         <v>51</v>
       </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="8">
+      <c r="N10" s="39"/>
+      <c r="O10" s="17">
         <v>51</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
         <v>52</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="2"/>
       <c r="T10" t="s">
         <v>17</v>
@@ -1810,39 +1810,39 @@
       <c r="AK10" s="4"/>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="16">
         <v>5</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="8">
+      <c r="C11" s="17"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17">
         <v>10</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17">
         <v>12</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="13">
+      <c r="J11" s="17"/>
+      <c r="K11" s="7">
         <v>49</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="40">
+      <c r="L11" s="8"/>
+      <c r="M11" s="14">
         <v>47</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="8">
+      <c r="N11" s="15"/>
+      <c r="O11" s="17">
         <v>47</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8">
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17">
         <v>47</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="18"/>
       <c r="S11" s="2"/>
       <c r="T11" t="s">
         <v>89</v>
@@ -1853,39 +1853,39 @@
       <c r="AK11" s="4"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="16">
         <v>6</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="8">
+      <c r="C12" s="17"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="17">
         <v>10</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17">
         <v>16</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="13">
+      <c r="J12" s="17"/>
+      <c r="K12" s="7">
         <v>46</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="40">
+      <c r="L12" s="8"/>
+      <c r="M12" s="14">
         <v>43</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="8">
+      <c r="N12" s="15"/>
+      <c r="O12" s="17">
         <v>44</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
         <v>43</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="18"/>
       <c r="S12" s="2"/>
       <c r="T12" t="s">
         <v>18</v>
@@ -1896,39 +1896,39 @@
       <c r="AK12" s="4"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="16">
         <v>7</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="8">
+      <c r="C13" s="17"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="17">
         <v>10</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17">
         <v>8</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="13">
+      <c r="J13" s="17"/>
+      <c r="K13" s="7">
         <v>54</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="40">
+      <c r="L13" s="8"/>
+      <c r="M13" s="14">
         <v>53</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="8">
+      <c r="N13" s="15"/>
+      <c r="O13" s="17">
         <v>53</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8">
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17">
         <v>53</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="18"/>
       <c r="S13" s="2"/>
       <c r="T13" t="s">
         <v>15</v>
@@ -1939,39 +1939,39 @@
       <c r="AK13" s="4"/>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="16">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="8">
+      <c r="C14" s="17"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="17">
         <v>10</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
         <v>12</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="13">
+      <c r="J14" s="17"/>
+      <c r="K14" s="7">
         <v>47</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="40">
+      <c r="L14" s="8"/>
+      <c r="M14" s="14">
         <v>47</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="40">
+      <c r="N14" s="15"/>
+      <c r="O14" s="14">
         <v>47</v>
       </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="40">
+      <c r="P14" s="15"/>
+      <c r="Q14" s="14">
         <v>47</v>
       </c>
-      <c r="R14" s="46"/>
+      <c r="R14" s="43"/>
       <c r="S14" s="2"/>
       <c r="T14" t="s">
         <v>90</v>
@@ -1982,1848 +1982,2241 @@
       <c r="AK14" s="4"/>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="16">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="8">
+      <c r="C15" s="17"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="17">
         <v>10</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17">
         <v>16</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="13">
+      <c r="J15" s="17"/>
+      <c r="K15" s="7">
         <v>70</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="40">
+      <c r="L15" s="8"/>
+      <c r="M15" s="14">
         <v>70</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="8">
+      <c r="N15" s="15"/>
+      <c r="O15" s="17">
         <v>70</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8">
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17">
         <v>70</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="18"/>
       <c r="S15" s="2"/>
       <c r="T15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="16">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="8">
+      <c r="C16" s="17"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="17">
         <v>20</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
         <v>0.01</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17">
         <v>8</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="13">
+      <c r="J16" s="17"/>
+      <c r="K16" s="7">
         <v>45</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="40">
+      <c r="L16" s="8"/>
+      <c r="M16" s="14">
         <v>44</v>
       </c>
-      <c r="N16" s="41"/>
-      <c r="O16" s="8">
+      <c r="N16" s="15"/>
+      <c r="O16" s="17">
         <v>44</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>44</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="18"/>
       <c r="S16" s="2"/>
       <c r="T16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="B17" s="16">
         <v>11</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="8">
+      <c r="C17" s="17"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="17">
         <v>20</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
         <v>0.01</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17">
         <v>12</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="13">
-        <v>50</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="40">
-        <v>50</v>
-      </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="8">
-        <v>50</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8">
-        <v>50</v>
-      </c>
-      <c r="R17" s="12"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="7">
+        <v>50</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="14">
+        <v>50</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="17">
+        <v>50</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17">
+        <v>50</v>
+      </c>
+      <c r="R17" s="18"/>
       <c r="S17" s="2"/>
       <c r="T17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+      <c r="B18" s="16">
         <v>12</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="8">
+      <c r="C18" s="17"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="17">
         <v>20</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
         <v>0.01</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
         <v>16</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="13">
-        <v>50</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="40">
+      <c r="J18" s="17"/>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="14">
         <v>49</v>
       </c>
-      <c r="N18" s="41"/>
-      <c r="O18" s="8">
+      <c r="N18" s="15"/>
+      <c r="O18" s="17">
         <v>49</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8">
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17">
         <v>49</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="18"/>
       <c r="S18" s="2"/>
       <c r="T18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+      <c r="B19" s="16">
         <v>13</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="8">
+      <c r="C19" s="17"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17">
         <v>20</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8">
+      <c r="H19" s="17"/>
+      <c r="I19" s="17">
         <v>8</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="13">
+      <c r="J19" s="17"/>
+      <c r="K19" s="7">
         <v>47</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="40">
+      <c r="L19" s="8"/>
+      <c r="M19" s="14">
         <v>45</v>
       </c>
-      <c r="N19" s="41"/>
-      <c r="O19" s="8">
+      <c r="N19" s="15"/>
+      <c r="O19" s="17">
         <v>45</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8">
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17">
         <v>45</v>
       </c>
-      <c r="R19" s="12"/>
+      <c r="R19" s="18"/>
       <c r="S19" s="2"/>
       <c r="T19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+      <c r="B20" s="16">
         <v>14</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="8">
+      <c r="C20" s="17"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17">
         <v>20</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
         <v>12</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="13">
+      <c r="J20" s="17"/>
+      <c r="K20" s="7">
         <v>52</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="40">
-        <v>50</v>
-      </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="8">
+      <c r="L20" s="8"/>
+      <c r="M20" s="14">
+        <v>50</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="17">
         <v>51</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8">
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17">
         <v>51</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="18"/>
       <c r="S20" s="2"/>
       <c r="T20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+      <c r="B21" s="16">
         <v>15</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="8">
+      <c r="C21" s="17"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="17">
         <v>20</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
         <v>16</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="13">
-        <v>50</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="40">
+      <c r="J21" s="17"/>
+      <c r="K21" s="7">
+        <v>50</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="14">
         <v>46</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="8">
+      <c r="N21" s="15"/>
+      <c r="O21" s="17">
         <v>48</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8">
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17">
         <v>47</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="18"/>
       <c r="S21" s="2"/>
       <c r="T21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+      <c r="B22" s="16">
         <v>16</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="8">
+      <c r="C22" s="17"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="17">
         <v>20</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
         <v>8</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="13">
+      <c r="J22" s="17"/>
+      <c r="K22" s="7">
         <v>72</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="40">
+      <c r="L22" s="8"/>
+      <c r="M22" s="14">
         <v>72</v>
       </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="8">
+      <c r="N22" s="15"/>
+      <c r="O22" s="17">
         <v>73</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8">
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17">
         <v>74</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="18"/>
       <c r="S22" s="2"/>
       <c r="T22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+      <c r="B23" s="16">
         <v>17</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="8">
+      <c r="C23" s="17"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="17">
         <v>20</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17">
         <v>12</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="13">
+      <c r="J23" s="17"/>
+      <c r="K23" s="7">
         <v>76</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="40">
+      <c r="L23" s="8"/>
+      <c r="M23" s="14">
         <v>75</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="8">
+      <c r="N23" s="15"/>
+      <c r="O23" s="17">
         <v>76</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8">
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17">
         <v>75</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="18"/>
       <c r="S23" s="2"/>
       <c r="T23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="16">
         <v>18</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="8">
+      <c r="C24" s="17"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="17">
         <v>20</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17">
         <v>16</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="13">
+      <c r="J24" s="17"/>
+      <c r="K24" s="7">
         <v>81</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="40">
+      <c r="L24" s="8"/>
+      <c r="M24" s="14">
         <v>81</v>
       </c>
-      <c r="N24" s="41"/>
-      <c r="O24" s="8">
+      <c r="N24" s="15"/>
+      <c r="O24" s="17">
         <v>80</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8">
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17">
         <v>83</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="18"/>
       <c r="S24" s="2"/>
       <c r="T24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
+      <c r="B25" s="16">
         <v>19</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="8">
+      <c r="C25" s="17"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="17">
         <v>30</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17">
         <v>0.01</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8">
+      <c r="H25" s="17"/>
+      <c r="I25" s="17">
         <v>8</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="13">
+      <c r="J25" s="17"/>
+      <c r="K25" s="7">
         <v>47</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="40">
+      <c r="L25" s="8"/>
+      <c r="M25" s="14">
         <v>46</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="8">
+      <c r="N25" s="15"/>
+      <c r="O25" s="17">
         <v>46</v>
       </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8">
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17">
         <v>46</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="18"/>
       <c r="S25" s="2"/>
       <c r="T25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="B26" s="16">
         <v>20</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="8">
+      <c r="C26" s="17"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="17">
         <v>30</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17">
         <v>0.01</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17">
         <v>12</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="13">
+      <c r="J26" s="17"/>
+      <c r="K26" s="7">
         <v>51</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="40">
+      <c r="L26" s="8"/>
+      <c r="M26" s="14">
         <v>49</v>
       </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="8">
-        <v>50</v>
-      </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8">
-        <v>50</v>
-      </c>
-      <c r="R26" s="12"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="17">
+        <v>50</v>
+      </c>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17">
+        <v>50</v>
+      </c>
+      <c r="R26" s="18"/>
       <c r="S26" s="2"/>
       <c r="T26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="B27" s="16">
         <v>21</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="8">
+      <c r="C27" s="17"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="17">
         <v>30</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17">
         <v>0.01</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8">
+      <c r="H27" s="17"/>
+      <c r="I27" s="17">
         <v>16</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="13">
+      <c r="J27" s="17"/>
+      <c r="K27" s="7">
         <v>52</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="40">
+      <c r="L27" s="8"/>
+      <c r="M27" s="14">
         <v>52</v>
       </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="8">
+      <c r="N27" s="15"/>
+      <c r="O27" s="17">
         <v>53</v>
       </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8">
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17">
         <v>53</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="18"/>
       <c r="S27" s="2"/>
       <c r="T27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="B28" s="16">
         <v>22</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="8">
+      <c r="C28" s="17"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="17">
         <v>30</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17">
         <v>8</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="13">
+      <c r="J28" s="17"/>
+      <c r="K28" s="7">
         <v>56</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="40">
+      <c r="L28" s="8"/>
+      <c r="M28" s="14">
         <v>56</v>
       </c>
-      <c r="N28" s="41"/>
-      <c r="O28" s="8">
+      <c r="N28" s="15"/>
+      <c r="O28" s="17">
         <v>57</v>
       </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8">
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17">
         <v>57</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="18"/>
       <c r="S28" s="2"/>
       <c r="T28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+      <c r="B29" s="16">
         <v>23</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="8">
+      <c r="C29" s="17"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="17">
         <v>30</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17">
         <v>12</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="13">
+      <c r="J29" s="17"/>
+      <c r="K29" s="7">
         <v>52</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="40">
+      <c r="L29" s="8"/>
+      <c r="M29" s="14">
         <v>52</v>
       </c>
-      <c r="N29" s="41"/>
-      <c r="O29" s="8">
+      <c r="N29" s="15"/>
+      <c r="O29" s="17">
         <v>53</v>
       </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8">
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17">
         <v>53</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="18"/>
       <c r="S29" s="2"/>
       <c r="T29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="B30" s="16">
         <v>16</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="8">
+      <c r="C30" s="17"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="17">
         <v>30</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8">
+      <c r="H30" s="17"/>
+      <c r="I30" s="17">
         <v>16</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="13">
+      <c r="J30" s="17"/>
+      <c r="K30" s="7">
         <v>43</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="40">
+      <c r="L30" s="8"/>
+      <c r="M30" s="14">
         <v>42</v>
       </c>
-      <c r="N30" s="41"/>
-      <c r="O30" s="8">
+      <c r="N30" s="15"/>
+      <c r="O30" s="17">
         <v>44</v>
       </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8">
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17">
         <v>44</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="18"/>
       <c r="S30" s="2"/>
       <c r="T30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+      <c r="B31" s="16">
         <v>25</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="8">
+      <c r="C31" s="17"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="17">
         <v>30</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8">
+      <c r="H31" s="17"/>
+      <c r="I31" s="17">
         <v>8</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="13">
+      <c r="J31" s="17"/>
+      <c r="K31" s="7">
         <v>76</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="40">
+      <c r="L31" s="8"/>
+      <c r="M31" s="14">
         <v>76</v>
       </c>
-      <c r="N31" s="41"/>
-      <c r="O31" s="8">
+      <c r="N31" s="15"/>
+      <c r="O31" s="17">
         <v>76</v>
       </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8">
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17">
         <v>76</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="18"/>
       <c r="S31" s="2"/>
       <c r="T31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+      <c r="B32" s="16">
         <v>26</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="8">
+      <c r="C32" s="17"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="17">
         <v>30</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8">
+      <c r="F32" s="17"/>
+      <c r="G32" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8">
+      <c r="H32" s="17"/>
+      <c r="I32" s="17">
         <v>12</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="13">
+      <c r="J32" s="17"/>
+      <c r="K32" s="7">
         <v>81</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="40">
+      <c r="L32" s="8"/>
+      <c r="M32" s="14">
         <v>81</v>
       </c>
-      <c r="N32" s="41"/>
-      <c r="O32" s="8">
+      <c r="N32" s="15"/>
+      <c r="O32" s="17">
         <v>82</v>
       </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8">
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17">
         <v>82</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="18"/>
       <c r="S32" s="2"/>
       <c r="T32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10">
+      <c r="B33" s="44">
         <v>27</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="11">
+      <c r="C33" s="27"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27">
         <v>30</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27">
         <v>1E-4</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
+      <c r="H33" s="27"/>
+      <c r="I33" s="27">
         <v>16</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="38">
+      <c r="J33" s="27"/>
+      <c r="K33" s="9">
         <v>83</v>
       </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="42">
+      <c r="L33" s="10"/>
+      <c r="M33" s="29">
         <v>83</v>
       </c>
-      <c r="N33" s="43"/>
-      <c r="O33" s="11">
+      <c r="N33" s="30"/>
+      <c r="O33" s="27">
         <v>84</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11">
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27">
         <v>84</v>
       </c>
-      <c r="R33" s="24"/>
+      <c r="R33" s="31"/>
       <c r="S33" s="2"/>
       <c r="T33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
+      <c r="B34" s="19">
         <v>28</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="20">
         <v>10</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20">
         <v>0.01</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20">
         <v>8</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30">
+      <c r="J34" s="20"/>
+      <c r="K34" s="21">
         <v>51</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="29">
-        <v>50</v>
-      </c>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29">
-        <v>50</v>
-      </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29">
-        <v>50</v>
-      </c>
-      <c r="R34" s="34"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="20">
+        <v>50</v>
+      </c>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20">
+        <v>50</v>
+      </c>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20">
+        <v>50</v>
+      </c>
+      <c r="R34" s="26"/>
       <c r="S34" s="2"/>
       <c r="T34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
+      <c r="B35" s="16">
         <v>29</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="8">
+      <c r="C35" s="17"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="17">
         <v>10</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8">
+      <c r="F35" s="17"/>
+      <c r="G35" s="17">
         <v>0.01</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8">
+      <c r="H35" s="17"/>
+      <c r="I35" s="17">
         <v>12</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="13">
+      <c r="J35" s="17"/>
+      <c r="K35" s="7">
         <v>49</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="8">
+      <c r="L35" s="8"/>
+      <c r="M35" s="17">
         <v>47</v>
       </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8">
+      <c r="N35" s="17"/>
+      <c r="O35" s="17">
         <v>48</v>
       </c>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8">
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17">
         <v>48</v>
       </c>
-      <c r="R35" s="12"/>
+      <c r="R35" s="18"/>
       <c r="S35" s="2"/>
       <c r="T35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="B36" s="16">
         <v>30</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="8">
+      <c r="C36" s="17"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="17">
         <v>10</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17">
         <v>0.01</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8">
+      <c r="H36" s="17"/>
+      <c r="I36" s="17">
         <v>16</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="13">
+      <c r="J36" s="17"/>
+      <c r="K36" s="7">
         <v>56</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="8">
+      <c r="L36" s="8"/>
+      <c r="M36" s="17">
         <v>55</v>
       </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8">
+      <c r="N36" s="17"/>
+      <c r="O36" s="17">
         <v>55</v>
       </c>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8">
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17">
         <v>56</v>
       </c>
-      <c r="R36" s="12"/>
+      <c r="R36" s="18"/>
       <c r="S36" s="2"/>
       <c r="T36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="7">
+      <c r="B37" s="16">
         <v>31</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="8">
+      <c r="C37" s="17"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="17">
         <v>10</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8">
+      <c r="F37" s="17"/>
+      <c r="G37" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8">
+      <c r="H37" s="17"/>
+      <c r="I37" s="17">
         <v>8</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="13">
-        <v>50</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="8">
-        <v>50</v>
-      </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8">
-        <v>50</v>
-      </c>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8">
-        <v>50</v>
-      </c>
-      <c r="R37" s="12"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="7">
+        <v>50</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="17">
+        <v>50</v>
+      </c>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17">
+        <v>50</v>
+      </c>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17">
+        <v>50</v>
+      </c>
+      <c r="R37" s="18"/>
       <c r="S37" s="2"/>
       <c r="T37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="7">
+      <c r="B38" s="16">
         <v>32</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="8">
+      <c r="C38" s="17"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="17">
         <v>10</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8">
+      <c r="F38" s="17"/>
+      <c r="G38" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8">
+      <c r="H38" s="17"/>
+      <c r="I38" s="17">
         <v>12</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="13">
+      <c r="J38" s="17"/>
+      <c r="K38" s="7">
         <v>52</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="8">
+      <c r="L38" s="8"/>
+      <c r="M38" s="17">
         <v>51</v>
       </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8">
+      <c r="N38" s="17"/>
+      <c r="O38" s="17">
         <v>52</v>
       </c>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8">
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17">
         <v>52</v>
       </c>
-      <c r="R38" s="12"/>
+      <c r="R38" s="18"/>
       <c r="S38" s="2"/>
       <c r="T38" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+      <c r="B39" s="16">
         <v>33</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="8">
+      <c r="C39" s="17"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="17">
         <v>10</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8">
+      <c r="H39" s="17"/>
+      <c r="I39" s="17">
         <v>16</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="13">
+      <c r="J39" s="17"/>
+      <c r="K39" s="7">
         <v>42</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="8">
+      <c r="L39" s="8"/>
+      <c r="M39" s="17">
         <v>41</v>
       </c>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8">
+      <c r="N39" s="17"/>
+      <c r="O39" s="17">
         <v>41</v>
       </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8">
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17">
         <v>41</v>
       </c>
-      <c r="R39" s="12"/>
+      <c r="R39" s="18"/>
       <c r="S39" s="2"/>
       <c r="T39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
+      <c r="B40" s="16">
         <v>34</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="8">
+      <c r="C40" s="17"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="17">
         <v>10</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8">
+      <c r="H40" s="17"/>
+      <c r="I40" s="17">
         <v>8</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="13">
+      <c r="J40" s="17"/>
+      <c r="K40" s="7">
         <v>48</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="8">
+      <c r="L40" s="8"/>
+      <c r="M40" s="17">
         <v>47</v>
       </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8">
+      <c r="N40" s="17"/>
+      <c r="O40" s="17">
         <v>47</v>
       </c>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8">
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17">
         <v>47</v>
       </c>
-      <c r="R40" s="12"/>
+      <c r="R40" s="18"/>
       <c r="S40" s="2"/>
       <c r="T40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="7">
+      <c r="B41" s="16">
         <v>35</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="8">
+      <c r="C41" s="17"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="17">
         <v>10</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17">
         <v>12</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="13">
+      <c r="J41" s="17"/>
+      <c r="K41" s="7">
         <v>54</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="8">
+      <c r="L41" s="8"/>
+      <c r="M41" s="17">
         <v>52</v>
       </c>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8">
+      <c r="N41" s="17"/>
+      <c r="O41" s="17">
         <v>53</v>
       </c>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8">
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17">
         <v>53</v>
       </c>
-      <c r="R41" s="12"/>
+      <c r="R41" s="18"/>
       <c r="S41" s="2"/>
       <c r="T41" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
+      <c r="B42" s="16">
         <v>36</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="8">
+      <c r="C42" s="17"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="17">
         <v>10</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17">
         <v>16</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="13">
+      <c r="J42" s="17"/>
+      <c r="K42" s="7">
         <v>60</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="8">
+      <c r="L42" s="8"/>
+      <c r="M42" s="17">
         <v>53</v>
       </c>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8">
+      <c r="N42" s="17"/>
+      <c r="O42" s="17">
         <v>57</v>
       </c>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8">
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17">
         <v>63</v>
       </c>
-      <c r="R42" s="12"/>
+      <c r="R42" s="18"/>
       <c r="S42" s="2"/>
       <c r="T42" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="7">
+      <c r="B43" s="16">
         <v>37</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="8">
+      <c r="C43" s="17"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="17">
         <v>20</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17">
         <v>0.01</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8">
+      <c r="H43" s="17"/>
+      <c r="I43" s="17">
         <v>8</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="13">
+      <c r="J43" s="17"/>
+      <c r="K43" s="7">
         <v>55</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="8">
+      <c r="L43" s="8"/>
+      <c r="M43" s="17">
         <v>51</v>
       </c>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8">
+      <c r="N43" s="17"/>
+      <c r="O43" s="17">
         <v>53</v>
       </c>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8">
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17">
         <v>54</v>
       </c>
-      <c r="R43" s="12"/>
+      <c r="R43" s="18"/>
       <c r="S43" s="2"/>
       <c r="T43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="7">
+      <c r="B44" s="16">
         <v>38</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="8">
+      <c r="C44" s="17"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="17">
         <v>20</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17">
         <v>0.01</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8">
+      <c r="H44" s="17"/>
+      <c r="I44" s="17">
         <v>12</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="13">
+      <c r="J44" s="17"/>
+      <c r="K44" s="7">
         <v>52</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="8">
+      <c r="L44" s="8"/>
+      <c r="M44" s="17">
         <v>52</v>
       </c>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8">
+      <c r="N44" s="17"/>
+      <c r="O44" s="17">
         <v>52</v>
       </c>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8">
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17">
         <v>52</v>
       </c>
-      <c r="R44" s="8"/>
+      <c r="R44" s="17"/>
       <c r="S44" s="2"/>
       <c r="T44" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="7">
+      <c r="B45" s="16">
         <v>39</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="8">
+      <c r="C45" s="17"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="17">
         <v>20</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17">
         <v>0.01</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8">
+      <c r="H45" s="17"/>
+      <c r="I45" s="17">
         <v>16</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="13">
+      <c r="J45" s="17"/>
+      <c r="K45" s="7">
         <v>55</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="8">
+      <c r="L45" s="8"/>
+      <c r="M45" s="17">
         <v>54</v>
       </c>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8">
+      <c r="N45" s="17"/>
+      <c r="O45" s="17">
         <v>54</v>
       </c>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8">
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17">
         <v>54</v>
       </c>
-      <c r="R45" s="12"/>
+      <c r="R45" s="18"/>
       <c r="S45" s="2"/>
       <c r="T45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+      <c r="B46" s="16">
         <v>40</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="8">
+      <c r="C46" s="17"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="17">
         <v>20</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8">
+      <c r="H46" s="17"/>
+      <c r="I46" s="17">
         <v>8</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="13">
+      <c r="J46" s="17"/>
+      <c r="K46" s="7">
         <v>45</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="8">
+      <c r="L46" s="8"/>
+      <c r="M46" s="17">
         <v>45</v>
       </c>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8">
+      <c r="N46" s="17"/>
+      <c r="O46" s="17">
         <v>45</v>
       </c>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8">
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17">
         <v>45</v>
       </c>
-      <c r="R46" s="12"/>
+      <c r="R46" s="18"/>
       <c r="S46" s="2"/>
       <c r="T46" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+      <c r="B47" s="16">
         <v>41</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="8">
+      <c r="C47" s="17"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="17">
         <v>20</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8">
+      <c r="H47" s="17"/>
+      <c r="I47" s="17">
         <v>12</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="13">
+      <c r="J47" s="17"/>
+      <c r="K47" s="7">
         <v>45</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="8">
+      <c r="L47" s="8"/>
+      <c r="M47" s="17">
         <v>45</v>
       </c>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8">
+      <c r="N47" s="17"/>
+      <c r="O47" s="17">
         <v>45</v>
       </c>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8">
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17">
         <v>45</v>
       </c>
-      <c r="R47" s="12"/>
+      <c r="R47" s="18"/>
       <c r="S47" s="2"/>
       <c r="T47" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+      <c r="B48" s="16">
         <v>42</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="8">
+      <c r="C48" s="17"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="17">
         <v>20</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8">
+      <c r="H48" s="17"/>
+      <c r="I48" s="17">
         <v>16</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="13">
+      <c r="J48" s="17"/>
+      <c r="K48" s="7">
         <v>45</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="8">
+      <c r="L48" s="8"/>
+      <c r="M48" s="17">
         <v>43</v>
       </c>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8">
+      <c r="N48" s="17"/>
+      <c r="O48" s="17">
         <v>44</v>
       </c>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8">
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17">
         <v>43</v>
       </c>
-      <c r="R48" s="12"/>
+      <c r="R48" s="18"/>
       <c r="S48" s="2"/>
       <c r="T48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="7">
+      <c r="B49" s="16">
         <v>43</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="8">
+      <c r="C49" s="17"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="17">
         <v>20</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8">
+      <c r="H49" s="17"/>
+      <c r="I49" s="17">
         <v>8</v>
       </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="13">
+      <c r="J49" s="17"/>
+      <c r="K49" s="7">
         <v>44</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="8">
+      <c r="L49" s="8"/>
+      <c r="M49" s="17">
         <v>43</v>
       </c>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8">
+      <c r="N49" s="17"/>
+      <c r="O49" s="17">
         <v>43</v>
       </c>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8">
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17">
         <v>43</v>
       </c>
-      <c r="R49" s="12"/>
+      <c r="R49" s="18"/>
       <c r="S49" s="2"/>
       <c r="T49" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="7">
+      <c r="B50" s="16">
         <v>44</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="8">
+      <c r="C50" s="17"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="17">
         <v>20</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17">
         <v>12</v>
       </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="13">
+      <c r="J50" s="17"/>
+      <c r="K50" s="7">
         <v>49</v>
       </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="8">
+      <c r="L50" s="8"/>
+      <c r="M50" s="17">
         <v>49</v>
       </c>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8">
+      <c r="N50" s="17"/>
+      <c r="O50" s="17">
         <v>49</v>
       </c>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8">
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17">
         <v>49</v>
       </c>
-      <c r="R50" s="12"/>
+      <c r="R50" s="18"/>
       <c r="S50" s="2"/>
       <c r="T50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="7">
+      <c r="B51" s="16">
         <v>45</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="8">
+      <c r="C51" s="17"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="17">
         <v>20</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8">
+      <c r="H51" s="17"/>
+      <c r="I51" s="17">
         <v>16</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="13">
+      <c r="J51" s="17"/>
+      <c r="K51" s="7">
         <v>55</v>
       </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="8">
+      <c r="L51" s="8"/>
+      <c r="M51" s="17">
         <v>55</v>
       </c>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8">
+      <c r="N51" s="17"/>
+      <c r="O51" s="17">
         <v>55</v>
       </c>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8">
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17">
         <v>55</v>
       </c>
-      <c r="R51" s="12"/>
+      <c r="R51" s="18"/>
       <c r="S51" s="2"/>
       <c r="T51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="7">
+      <c r="B52" s="16">
         <v>46</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="8">
+      <c r="C52" s="17"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="17">
         <v>30</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17">
         <v>0.01</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8">
+      <c r="H52" s="17"/>
+      <c r="I52" s="17">
         <v>8</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="13">
+      <c r="J52" s="17"/>
+      <c r="K52" s="7">
         <v>44</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="8">
+      <c r="L52" s="8"/>
+      <c r="M52" s="17">
         <v>41</v>
       </c>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8">
+      <c r="N52" s="17"/>
+      <c r="O52" s="17">
         <v>42</v>
       </c>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8">
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17">
         <v>41</v>
       </c>
-      <c r="R52" s="12"/>
+      <c r="R52" s="18"/>
       <c r="S52" s="2"/>
       <c r="T52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="7">
+      <c r="B53" s="16">
         <v>47</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="8">
+      <c r="C53" s="17"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="17">
         <v>30</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17">
         <v>0.01</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8">
+      <c r="H53" s="17"/>
+      <c r="I53" s="17">
         <v>12</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="13">
+      <c r="J53" s="17"/>
+      <c r="K53" s="7">
         <v>53</v>
       </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="8">
+      <c r="L53" s="8"/>
+      <c r="M53" s="17">
         <v>53</v>
       </c>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8">
+      <c r="N53" s="17"/>
+      <c r="O53" s="17">
         <v>53</v>
       </c>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8">
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17">
         <v>53</v>
       </c>
-      <c r="R53" s="12"/>
+      <c r="R53" s="18"/>
       <c r="S53" s="2"/>
       <c r="T53" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="7">
+      <c r="B54" s="16">
         <v>48</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="8">
+      <c r="C54" s="17"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="17">
         <v>30</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8">
+      <c r="F54" s="17"/>
+      <c r="G54" s="17">
         <v>0.01</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8">
+      <c r="H54" s="17"/>
+      <c r="I54" s="17">
         <v>16</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="13">
+      <c r="J54" s="17"/>
+      <c r="K54" s="7">
         <v>54</v>
       </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="8">
+      <c r="L54" s="8"/>
+      <c r="M54" s="17">
         <v>35</v>
       </c>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8">
-        <v>50</v>
-      </c>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8">
+      <c r="N54" s="17"/>
+      <c r="O54" s="17">
+        <v>50</v>
+      </c>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17">
         <v>27</v>
       </c>
-      <c r="R54" s="12"/>
+      <c r="R54" s="18"/>
       <c r="S54" s="2"/>
       <c r="T54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="7">
+      <c r="B55" s="16">
         <v>49</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="8">
+      <c r="C55" s="17"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="17">
         <v>30</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8">
+      <c r="F55" s="17"/>
+      <c r="G55" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8">
+      <c r="H55" s="17"/>
+      <c r="I55" s="17">
         <v>8</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="13">
+      <c r="J55" s="17"/>
+      <c r="K55" s="7">
         <v>41</v>
       </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="8">
+      <c r="L55" s="8"/>
+      <c r="M55" s="17">
         <v>34</v>
       </c>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8">
+      <c r="N55" s="17"/>
+      <c r="O55" s="17">
         <v>38</v>
       </c>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8">
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17">
         <v>33</v>
       </c>
-      <c r="R55" s="12"/>
+      <c r="R55" s="18"/>
       <c r="S55" s="2"/>
       <c r="T55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="7">
-        <v>50</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="8">
+      <c r="B56" s="16">
+        <v>50</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="17">
         <v>30</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8">
+      <c r="F56" s="17"/>
+      <c r="G56" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17">
         <v>12</v>
       </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="13">
+      <c r="J56" s="17"/>
+      <c r="K56" s="7">
         <v>52</v>
       </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="8">
+      <c r="L56" s="8"/>
+      <c r="M56" s="17">
         <v>43</v>
       </c>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8">
+      <c r="N56" s="17"/>
+      <c r="O56" s="17">
         <v>49</v>
       </c>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8">
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17">
         <v>48</v>
       </c>
-      <c r="R56" s="12"/>
+      <c r="R56" s="18"/>
       <c r="S56" s="2"/>
       <c r="T56" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="7">
+      <c r="B57" s="16">
         <v>51</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="8">
+      <c r="C57" s="17"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="17">
         <v>30</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8">
+      <c r="H57" s="17"/>
+      <c r="I57" s="17">
         <v>16</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="13">
+      <c r="J57" s="17"/>
+      <c r="K57" s="7">
         <v>49</v>
       </c>
-      <c r="L57" s="14"/>
-      <c r="M57" s="8">
+      <c r="L57" s="8"/>
+      <c r="M57" s="17">
         <v>44</v>
       </c>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8">
+      <c r="N57" s="17"/>
+      <c r="O57" s="17">
         <v>47</v>
       </c>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8">
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17">
         <v>46</v>
       </c>
-      <c r="R57" s="12"/>
+      <c r="R57" s="18"/>
       <c r="S57" s="2"/>
       <c r="T57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="7">
+      <c r="B58" s="16">
         <v>52</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="8">
+      <c r="C58" s="17"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="17">
         <v>30</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8">
+      <c r="H58" s="17"/>
+      <c r="I58" s="17">
         <v>8</v>
       </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="13">
+      <c r="J58" s="17"/>
+      <c r="K58" s="7">
         <v>48</v>
       </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="8">
+      <c r="L58" s="8"/>
+      <c r="M58" s="17">
         <v>40</v>
       </c>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8">
+      <c r="N58" s="17"/>
+      <c r="O58" s="17">
         <v>45</v>
       </c>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8">
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17">
         <v>42</v>
       </c>
-      <c r="R58" s="12"/>
+      <c r="R58" s="18"/>
       <c r="S58" s="2"/>
       <c r="T58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="7">
+      <c r="B59" s="16">
         <v>53</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="8">
+      <c r="C59" s="17"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="17">
         <v>30</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8">
+      <c r="H59" s="17"/>
+      <c r="I59" s="17">
         <v>12</v>
       </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="13">
+      <c r="J59" s="17"/>
+      <c r="K59" s="7">
         <v>49</v>
       </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="8">
+      <c r="L59" s="8"/>
+      <c r="M59" s="17">
         <v>47</v>
       </c>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8">
+      <c r="N59" s="17"/>
+      <c r="O59" s="17">
         <v>48</v>
       </c>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8">
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17">
         <v>48</v>
       </c>
-      <c r="R59" s="12"/>
+      <c r="R59" s="18"/>
       <c r="S59" s="2"/>
       <c r="T59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="35">
+      <c r="B60" s="11">
         <v>54</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="36">
+      <c r="C60" s="12"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="12">
         <v>30</v>
       </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12">
         <v>1E-4</v>
       </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36">
+      <c r="H60" s="12"/>
+      <c r="I60" s="12">
         <v>16</v>
       </c>
-      <c r="J60" s="36"/>
-      <c r="K60" s="38">
+      <c r="J60" s="12"/>
+      <c r="K60" s="9">
         <v>49</v>
       </c>
-      <c r="L60" s="39"/>
-      <c r="M60" s="36">
+      <c r="L60" s="10"/>
+      <c r="M60" s="12">
         <v>47</v>
       </c>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36">
+      <c r="N60" s="12"/>
+      <c r="O60" s="12">
         <v>47</v>
       </c>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36">
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12">
         <v>47</v>
       </c>
-      <c r="R60" s="37"/>
+      <c r="R60" s="13"/>
       <c r="S60" s="2"/>
       <c r="T60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="S64" s="13" t="s">
+      <c r="S64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T64" s="14"/>
+      <c r="T64" s="8"/>
     </row>
     <row r="65" spans="19:20" x14ac:dyDescent="0.25">
-      <c r="S65" s="13">
-        <v>50</v>
-      </c>
-      <c r="T65" s="14"/>
+      <c r="S65" s="7">
+        <v>50</v>
+      </c>
+      <c r="T65" s="8"/>
     </row>
     <row r="66" spans="19:20" x14ac:dyDescent="0.25">
-      <c r="S66" s="13">
-        <v>50</v>
-      </c>
-      <c r="T66" s="14"/>
+      <c r="S66" s="7">
+        <v>50</v>
+      </c>
+      <c r="T66" s="8"/>
     </row>
     <row r="67" spans="19:20" x14ac:dyDescent="0.25">
-      <c r="S67" s="13">
-        <v>50</v>
-      </c>
-      <c r="T67" s="14"/>
+      <c r="S67" s="7">
+        <v>50</v>
+      </c>
+      <c r="T67" s="8"/>
     </row>
     <row r="68" spans="19:20" x14ac:dyDescent="0.25">
-      <c r="S68" s="13">
+      <c r="S68" s="7">
         <v>51</v>
       </c>
-      <c r="T68" s="14"/>
+      <c r="T68" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="451">
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="S68:T68"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B3:R5"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D7:D33"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="D34:D60"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="G60:H60"/>
@@ -3848,418 +4241,25 @@
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="D34:D60"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B3:R5"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D7:D33"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4271,14 +4271,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A32D14-DBC4-46D1-9159-8D1EB6192F1C}">
   <dimension ref="B1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
@@ -4290,160 +4291,160 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="T3" s="27" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="T3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="T4" s="27" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="37"/>
+      <c r="T4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="21"/>
-      <c r="T5" s="27" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="37"/>
+      <c r="T5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
+      <c r="N6" s="40"/>
+      <c r="O6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="15"/>
+      <c r="R6" s="42"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="17">
         <v>10</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17">
         <v>0.01</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17">
         <v>8</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="13">
+      <c r="J7" s="17"/>
+      <c r="K7" s="7">
         <v>53</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="8">
+      <c r="L7" s="8"/>
+      <c r="M7" s="17">
         <v>35</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8">
-        <v>50</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8">
+      <c r="N7" s="17"/>
+      <c r="O7" s="17">
+        <v>50</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17">
         <v>26</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="18"/>
       <c r="S7" s="2"/>
       <c r="T7" t="s">
         <v>37</v>
@@ -4452,39 +4453,39 @@
       <c r="AG7" s="5"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="8">
+      <c r="C8" s="17"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="17">
         <v>10</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17">
         <v>0.01</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17">
         <v>12</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="13">
+      <c r="J8" s="17"/>
+      <c r="K8" s="7">
         <v>46</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="8">
+      <c r="L8" s="8"/>
+      <c r="M8" s="17">
         <v>31</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8">
-        <v>50</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
+        <v>50</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
         <v>23</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="18"/>
       <c r="S8" s="2"/>
       <c r="T8" t="s">
         <v>107</v>
@@ -4493,39 +4494,39 @@
       <c r="AG8" s="5"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="16">
         <v>3</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="8">
+      <c r="C9" s="17"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="17">
         <v>10</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17">
         <v>0.01</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
         <v>16</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="13">
+      <c r="J9" s="17"/>
+      <c r="K9" s="7">
         <v>53</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="8">
+      <c r="L9" s="8"/>
+      <c r="M9" s="17">
         <v>35</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8">
-        <v>50</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
+        <v>50</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17">
         <v>26</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="18"/>
       <c r="S9" s="2"/>
       <c r="T9" t="s">
         <v>38</v>
@@ -4534,39 +4535,39 @@
       <c r="AG9" s="5"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="8">
+      <c r="C10" s="17"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="17">
         <v>10</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
         <v>8</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="13">
+      <c r="J10" s="17"/>
+      <c r="K10" s="7">
         <v>53</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="8">
+      <c r="L10" s="8"/>
+      <c r="M10" s="17">
         <v>35</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8">
-        <v>50</v>
-      </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
+        <v>50</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
         <v>26</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="2"/>
       <c r="T10" t="s">
         <v>35</v>
@@ -4575,39 +4576,39 @@
       <c r="AG10" s="5"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="16">
         <v>5</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="8">
+      <c r="C11" s="17"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17">
         <v>10</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17">
         <v>12</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="13">
+      <c r="J11" s="17"/>
+      <c r="K11" s="7">
         <v>53</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="8">
+      <c r="L11" s="8"/>
+      <c r="M11" s="17">
         <v>35</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8">
-        <v>50</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8">
+      <c r="N11" s="17"/>
+      <c r="O11" s="17">
+        <v>50</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17">
         <v>26</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="18"/>
       <c r="S11" s="2"/>
       <c r="T11" t="s">
         <v>108</v>
@@ -4616,1913 +4617,1913 @@
       <c r="AG11" s="5"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="16">
         <v>6</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="8">
+      <c r="C12" s="17"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="17">
         <v>10</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17">
         <v>16</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="13">
+      <c r="J12" s="17"/>
+      <c r="K12" s="7">
         <v>53</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="8">
+      <c r="L12" s="8"/>
+      <c r="M12" s="17">
         <v>35</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8">
-        <v>50</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
+        <v>50</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
         <v>26</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="18"/>
       <c r="S12" s="2"/>
       <c r="T12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="16">
         <v>7</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="8">
+      <c r="C13" s="17"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="17">
         <v>10</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17">
         <v>8</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="13">
+      <c r="J13" s="17"/>
+      <c r="K13" s="7">
         <v>53</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="8">
+      <c r="L13" s="8"/>
+      <c r="M13" s="17">
         <v>43</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8">
-        <v>50</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8">
+      <c r="N13" s="17"/>
+      <c r="O13" s="17">
+        <v>50</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17">
         <v>52</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="18"/>
       <c r="S13" s="2"/>
       <c r="T13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="16">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="8">
+      <c r="C14" s="17"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="17">
         <v>10</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
         <v>12</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="13">
+      <c r="J14" s="17"/>
+      <c r="K14" s="7">
         <v>53</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="8">
+      <c r="L14" s="8"/>
+      <c r="M14" s="17">
         <v>43</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8">
-        <v>50</v>
-      </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
+        <v>50</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
         <v>52</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="18"/>
       <c r="S14" s="2"/>
       <c r="T14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="16">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="8">
+      <c r="C15" s="17"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="17">
         <v>10</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17">
         <v>16</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="13">
+      <c r="J15" s="17"/>
+      <c r="K15" s="7">
         <v>51</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="8">
+      <c r="L15" s="8"/>
+      <c r="M15" s="17">
         <v>47</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8">
+      <c r="N15" s="17"/>
+      <c r="O15" s="17">
         <v>49</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8">
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17">
         <v>49</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="18"/>
       <c r="S15" s="2"/>
       <c r="T15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="16">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="8">
+      <c r="C16" s="17"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="17">
         <v>20</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
         <v>0.01</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17">
         <v>8</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="13">
+      <c r="J16" s="17"/>
+      <c r="K16" s="7">
         <v>53</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="8">
+      <c r="L16" s="8"/>
+      <c r="M16" s="17">
         <v>35</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8">
-        <v>50</v>
-      </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
+        <v>50</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>26</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="18"/>
       <c r="S16" s="2"/>
       <c r="T16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="B17" s="16">
         <v>11</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="8">
+      <c r="C17" s="17"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="17">
         <v>20</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
         <v>0.01</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17">
         <v>12</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="13">
+      <c r="J17" s="17"/>
+      <c r="K17" s="7">
         <v>53</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="8">
+      <c r="L17" s="8"/>
+      <c r="M17" s="17">
         <v>35</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8">
-        <v>50</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8">
+      <c r="N17" s="17"/>
+      <c r="O17" s="17">
+        <v>50</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17">
         <v>26</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="18"/>
       <c r="S17" s="2"/>
       <c r="T17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+      <c r="B18" s="16">
         <v>12</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="8">
+      <c r="C18" s="17"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="17">
         <v>20</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
         <v>0.01</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
         <v>16</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="13">
+      <c r="J18" s="17"/>
+      <c r="K18" s="7">
         <v>46</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="8">
+      <c r="L18" s="8"/>
+      <c r="M18" s="17">
         <v>31</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8">
-        <v>50</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8">
+      <c r="N18" s="17"/>
+      <c r="O18" s="17">
+        <v>50</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17">
         <v>23</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="18"/>
       <c r="S18" s="2"/>
       <c r="T18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+      <c r="B19" s="16">
         <v>13</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="8">
+      <c r="C19" s="17"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17">
         <v>20</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8">
+      <c r="H19" s="17"/>
+      <c r="I19" s="17">
         <v>8</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="13">
+      <c r="J19" s="17"/>
+      <c r="K19" s="7">
         <v>46</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="8">
+      <c r="L19" s="8"/>
+      <c r="M19" s="17">
         <v>31</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8">
-        <v>50</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8">
+      <c r="N19" s="17"/>
+      <c r="O19" s="17">
+        <v>50</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17">
         <v>23</v>
       </c>
-      <c r="R19" s="12"/>
+      <c r="R19" s="18"/>
       <c r="S19" s="2"/>
       <c r="T19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+      <c r="B20" s="16">
         <v>14</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="8">
+      <c r="C20" s="17"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17">
         <v>20</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
         <v>12</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="13">
+      <c r="J20" s="17"/>
+      <c r="K20" s="7">
         <v>53</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="8">
+      <c r="L20" s="8"/>
+      <c r="M20" s="17">
         <v>35</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8">
-        <v>50</v>
-      </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8">
+      <c r="N20" s="17"/>
+      <c r="O20" s="17">
+        <v>50</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17">
         <v>26</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="18"/>
       <c r="S20" s="2"/>
       <c r="T20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+      <c r="B21" s="16">
         <v>15</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="8">
+      <c r="C21" s="17"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="17">
         <v>20</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
         <v>16</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="13">
+      <c r="J21" s="17"/>
+      <c r="K21" s="7">
         <v>46</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="8">
+      <c r="L21" s="8"/>
+      <c r="M21" s="17">
         <v>31</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8">
-        <v>50</v>
-      </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8">
+      <c r="N21" s="17"/>
+      <c r="O21" s="17">
+        <v>50</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17">
         <v>23</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="18"/>
       <c r="S21" s="2"/>
       <c r="T21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+      <c r="B22" s="16">
         <v>16</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="8">
+      <c r="C22" s="17"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="17">
         <v>20</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
         <v>8</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="13">
+      <c r="J22" s="17"/>
+      <c r="K22" s="7">
         <v>35</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="8">
+      <c r="L22" s="8"/>
+      <c r="M22" s="17">
         <v>33</v>
       </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8">
+      <c r="N22" s="17"/>
+      <c r="O22" s="17">
         <v>34</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8">
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17">
         <v>32</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="18"/>
       <c r="S22" s="2"/>
       <c r="T22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+      <c r="B23" s="16">
         <v>17</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="8">
+      <c r="C23" s="17"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="17">
         <v>20</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17">
         <v>12</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="13">
+      <c r="J23" s="17"/>
+      <c r="K23" s="7">
         <v>35</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="8">
+      <c r="L23" s="8"/>
+      <c r="M23" s="17">
         <v>35</v>
       </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8">
+      <c r="N23" s="17"/>
+      <c r="O23" s="17">
         <v>35</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8">
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17">
         <v>35</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="18"/>
       <c r="S23" s="2"/>
       <c r="T23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="16">
         <v>18</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="8">
+      <c r="C24" s="17"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="17">
         <v>20</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17">
         <v>16</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="13">
+      <c r="J24" s="17"/>
+      <c r="K24" s="7">
         <v>43</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="8">
+      <c r="L24" s="8"/>
+      <c r="M24" s="17">
         <v>36</v>
       </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8">
+      <c r="N24" s="17"/>
+      <c r="O24" s="17">
         <v>41</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8">
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17">
         <v>36</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="18"/>
       <c r="S24" s="2"/>
       <c r="T24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
+      <c r="B25" s="16">
         <v>19</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="8">
+      <c r="C25" s="17"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="17">
         <v>30</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17">
         <v>0.01</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8">
+      <c r="H25" s="17"/>
+      <c r="I25" s="17">
         <v>8</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="13">
+      <c r="J25" s="17"/>
+      <c r="K25" s="7">
         <v>53</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="8">
+      <c r="L25" s="8"/>
+      <c r="M25" s="17">
         <v>35</v>
       </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8">
-        <v>50</v>
-      </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8">
+      <c r="N25" s="17"/>
+      <c r="O25" s="17">
+        <v>50</v>
+      </c>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17">
         <v>26</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="18"/>
       <c r="S25" s="2"/>
       <c r="T25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="B26" s="16">
         <v>20</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="8">
+      <c r="C26" s="17"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="17">
         <v>30</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17">
         <v>0.01</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17">
         <v>12</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="13">
+      <c r="J26" s="17"/>
+      <c r="K26" s="7">
         <v>53</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="8">
+      <c r="L26" s="8"/>
+      <c r="M26" s="17">
         <v>35</v>
       </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8">
-        <v>50</v>
-      </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8">
+      <c r="N26" s="17"/>
+      <c r="O26" s="17">
+        <v>50</v>
+      </c>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17">
         <v>26</v>
       </c>
-      <c r="R26" s="12"/>
+      <c r="R26" s="18"/>
       <c r="S26" s="2"/>
       <c r="T26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="B27" s="16">
         <v>21</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="8">
+      <c r="C27" s="17"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="17">
         <v>30</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17">
         <v>0.01</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8">
+      <c r="H27" s="17"/>
+      <c r="I27" s="17">
         <v>16</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="13">
+      <c r="J27" s="17"/>
+      <c r="K27" s="7">
         <v>53</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="8">
+      <c r="L27" s="8"/>
+      <c r="M27" s="17">
         <v>35</v>
       </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8">
-        <v>50</v>
-      </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8">
+      <c r="N27" s="17"/>
+      <c r="O27" s="17">
+        <v>50</v>
+      </c>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17">
         <v>26</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="18"/>
       <c r="S27" s="2"/>
       <c r="T27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="B28" s="16">
         <v>22</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="8">
+      <c r="C28" s="17"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="17">
         <v>30</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17">
         <v>8</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="13">
+      <c r="J28" s="17"/>
+      <c r="K28" s="7">
         <v>53</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="8">
+      <c r="L28" s="8"/>
+      <c r="M28" s="17">
         <v>35</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8">
-        <v>50</v>
-      </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8">
+      <c r="N28" s="17"/>
+      <c r="O28" s="17">
+        <v>50</v>
+      </c>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17">
         <v>26</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="18"/>
       <c r="S28" s="2"/>
       <c r="T28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+      <c r="B29" s="16">
         <v>23</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="8">
+      <c r="C29" s="17"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="17">
         <v>30</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17">
         <v>12</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="13">
+      <c r="J29" s="17"/>
+      <c r="K29" s="7">
         <v>53</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="8">
+      <c r="L29" s="8"/>
+      <c r="M29" s="17">
         <v>35</v>
       </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8">
-        <v>50</v>
-      </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8">
+      <c r="N29" s="17"/>
+      <c r="O29" s="17">
+        <v>50</v>
+      </c>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17">
         <v>26</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="18"/>
       <c r="S29" s="2"/>
       <c r="T29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="B30" s="16">
         <v>16</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="8">
+      <c r="C30" s="17"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="17">
         <v>30</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8">
+      <c r="H30" s="17"/>
+      <c r="I30" s="17">
         <v>16</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="13">
+      <c r="J30" s="17"/>
+      <c r="K30" s="7">
         <v>53</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="8">
+      <c r="L30" s="8"/>
+      <c r="M30" s="17">
         <v>35</v>
       </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8">
-        <v>50</v>
-      </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8">
+      <c r="N30" s="17"/>
+      <c r="O30" s="17">
+        <v>50</v>
+      </c>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17">
         <v>26</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="18"/>
       <c r="S30" s="2"/>
       <c r="T30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+      <c r="B31" s="16">
         <v>25</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="8">
+      <c r="C31" s="17"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="17">
         <v>30</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8">
+      <c r="H31" s="17"/>
+      <c r="I31" s="17">
         <v>8</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="13">
+      <c r="J31" s="17"/>
+      <c r="K31" s="7">
         <v>38</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="8">
+      <c r="L31" s="8"/>
+      <c r="M31" s="17">
         <v>30</v>
       </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8">
+      <c r="N31" s="17"/>
+      <c r="O31" s="17">
         <v>36</v>
       </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8">
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17">
         <v>28</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="18"/>
       <c r="S31" s="2"/>
       <c r="T31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+      <c r="B32" s="16">
         <v>26</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="8">
+      <c r="C32" s="17"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="17">
         <v>30</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8">
+      <c r="F32" s="17"/>
+      <c r="G32" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8">
+      <c r="H32" s="17"/>
+      <c r="I32" s="17">
         <v>12</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="13">
+      <c r="J32" s="17"/>
+      <c r="K32" s="7">
         <v>38</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="8">
+      <c r="L32" s="8"/>
+      <c r="M32" s="17">
         <v>30</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8">
+      <c r="N32" s="17"/>
+      <c r="O32" s="17">
         <v>36</v>
       </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8">
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17">
         <v>28</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="18"/>
       <c r="S32" s="2"/>
       <c r="T32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10">
+      <c r="B33" s="44">
         <v>27</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="11">
+      <c r="C33" s="27"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27">
         <v>30</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27">
         <v>1E-4</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
+      <c r="H33" s="27"/>
+      <c r="I33" s="27">
         <v>16</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="25">
+      <c r="J33" s="27"/>
+      <c r="K33" s="45">
         <v>35</v>
       </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="11">
+      <c r="L33" s="46"/>
+      <c r="M33" s="27">
         <v>33</v>
       </c>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11">
+      <c r="N33" s="27"/>
+      <c r="O33" s="27">
         <v>34</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11">
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27">
         <v>32</v>
       </c>
-      <c r="R33" s="24"/>
+      <c r="R33" s="31"/>
       <c r="S33" s="2"/>
       <c r="T33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
+      <c r="B34" s="19">
         <v>28</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="20">
         <v>10</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20">
         <v>0.01</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20">
         <v>8</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30">
+      <c r="J34" s="20"/>
+      <c r="K34" s="21">
         <v>46</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="29">
+      <c r="L34" s="22"/>
+      <c r="M34" s="20">
         <v>31</v>
       </c>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29">
-        <v>50</v>
-      </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29">
+      <c r="N34" s="20"/>
+      <c r="O34" s="20">
+        <v>50</v>
+      </c>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20">
         <v>23</v>
       </c>
-      <c r="R34" s="34"/>
+      <c r="R34" s="26"/>
       <c r="S34" s="2"/>
       <c r="T34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
+      <c r="B35" s="16">
         <v>29</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="8">
+      <c r="C35" s="17"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="17">
         <v>10</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8">
+      <c r="F35" s="17"/>
+      <c r="G35" s="17">
         <v>0.01</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8">
+      <c r="H35" s="17"/>
+      <c r="I35" s="17">
         <v>12</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="13">
+      <c r="J35" s="17"/>
+      <c r="K35" s="7">
         <v>53</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="8">
+      <c r="L35" s="8"/>
+      <c r="M35" s="17">
         <v>35</v>
       </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8">
-        <v>50</v>
-      </c>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8">
+      <c r="N35" s="17"/>
+      <c r="O35" s="17">
+        <v>50</v>
+      </c>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17">
         <v>26</v>
       </c>
-      <c r="R35" s="12"/>
+      <c r="R35" s="18"/>
       <c r="S35" s="2"/>
       <c r="T35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="B36" s="16">
         <v>30</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="8">
+      <c r="C36" s="17"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="17">
         <v>10</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17">
         <v>0.01</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8">
+      <c r="H36" s="17"/>
+      <c r="I36" s="17">
         <v>16</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="13">
+      <c r="J36" s="17"/>
+      <c r="K36" s="7">
         <v>46</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="8">
+      <c r="L36" s="8"/>
+      <c r="M36" s="17">
         <v>31</v>
       </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8">
-        <v>50</v>
-      </c>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8">
+      <c r="N36" s="17"/>
+      <c r="O36" s="17">
+        <v>50</v>
+      </c>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17">
         <v>23</v>
       </c>
-      <c r="R36" s="12"/>
+      <c r="R36" s="18"/>
       <c r="S36" s="2"/>
       <c r="T36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="7">
+      <c r="B37" s="16">
         <v>31</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="8">
+      <c r="C37" s="17"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="17">
         <v>10</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8">
+      <c r="F37" s="17"/>
+      <c r="G37" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8">
+      <c r="H37" s="17"/>
+      <c r="I37" s="17">
         <v>8</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="13">
+      <c r="J37" s="17"/>
+      <c r="K37" s="7">
         <v>53</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="8">
+      <c r="L37" s="8"/>
+      <c r="M37" s="17">
         <v>35</v>
       </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8">
-        <v>50</v>
-      </c>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8">
+      <c r="N37" s="17"/>
+      <c r="O37" s="17">
+        <v>50</v>
+      </c>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17">
         <v>26</v>
       </c>
-      <c r="R37" s="12"/>
+      <c r="R37" s="18"/>
       <c r="S37" s="2"/>
       <c r="T37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="7">
+      <c r="B38" s="16">
         <v>32</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="8">
+      <c r="C38" s="17"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="17">
         <v>10</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8">
+      <c r="F38" s="17"/>
+      <c r="G38" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8">
+      <c r="H38" s="17"/>
+      <c r="I38" s="17">
         <v>12</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="13">
+      <c r="J38" s="17"/>
+      <c r="K38" s="7">
         <v>53</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="8">
+      <c r="L38" s="8"/>
+      <c r="M38" s="17">
         <v>35</v>
       </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8">
-        <v>50</v>
-      </c>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8">
+      <c r="N38" s="17"/>
+      <c r="O38" s="17">
+        <v>50</v>
+      </c>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17">
         <v>26</v>
       </c>
-      <c r="R38" s="12"/>
+      <c r="R38" s="18"/>
       <c r="S38" s="2"/>
       <c r="T38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+      <c r="B39" s="16">
         <v>33</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="8">
+      <c r="C39" s="17"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="17">
         <v>10</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8">
+      <c r="H39" s="17"/>
+      <c r="I39" s="17">
         <v>16</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="13">
+      <c r="J39" s="17"/>
+      <c r="K39" s="7">
         <v>53</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="8">
+      <c r="L39" s="8"/>
+      <c r="M39" s="17">
         <v>35</v>
       </c>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8">
-        <v>50</v>
-      </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8">
+      <c r="N39" s="17"/>
+      <c r="O39" s="17">
+        <v>50</v>
+      </c>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17">
         <v>26</v>
       </c>
-      <c r="R39" s="12"/>
+      <c r="R39" s="18"/>
       <c r="S39" s="2"/>
       <c r="T39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
+      <c r="B40" s="16">
         <v>34</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="8">
+      <c r="C40" s="17"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="17">
         <v>10</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8">
+      <c r="H40" s="17"/>
+      <c r="I40" s="17">
         <v>8</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="13">
+      <c r="J40" s="17"/>
+      <c r="K40" s="7">
         <v>53</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="8">
+      <c r="L40" s="8"/>
+      <c r="M40" s="17">
         <v>35</v>
       </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8">
-        <v>50</v>
-      </c>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8">
+      <c r="N40" s="17"/>
+      <c r="O40" s="17">
+        <v>50</v>
+      </c>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17">
         <v>26</v>
       </c>
-      <c r="R40" s="12"/>
+      <c r="R40" s="18"/>
       <c r="S40" s="2"/>
       <c r="T40" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="7">
+      <c r="B41" s="16">
         <v>35</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="8">
+      <c r="C41" s="17"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="17">
         <v>10</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17">
         <v>12</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="13">
+      <c r="J41" s="17"/>
+      <c r="K41" s="7">
         <v>61</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="8">
+      <c r="L41" s="8"/>
+      <c r="M41" s="17">
         <v>57</v>
       </c>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8">
+      <c r="N41" s="17"/>
+      <c r="O41" s="17">
         <v>59</v>
       </c>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8">
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17">
         <v>63</v>
       </c>
-      <c r="R41" s="12"/>
+      <c r="R41" s="18"/>
       <c r="S41" s="2"/>
       <c r="T41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
+      <c r="B42" s="16">
         <v>36</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="8">
+      <c r="C42" s="17"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="17">
         <v>10</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17">
         <v>16</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="13">
+      <c r="J42" s="17"/>
+      <c r="K42" s="7">
         <v>51</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="8">
+      <c r="L42" s="8"/>
+      <c r="M42" s="17">
         <v>33</v>
       </c>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8">
+      <c r="N42" s="17"/>
+      <c r="O42" s="17">
         <v>47</v>
       </c>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8">
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17">
         <v>26</v>
       </c>
-      <c r="R42" s="12"/>
+      <c r="R42" s="18"/>
       <c r="S42" s="2"/>
       <c r="T42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="7">
+      <c r="B43" s="16">
         <v>37</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="8">
+      <c r="C43" s="17"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="17">
         <v>20</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17">
         <v>0.01</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8">
+      <c r="H43" s="17"/>
+      <c r="I43" s="17">
         <v>8</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="13">
+      <c r="J43" s="17"/>
+      <c r="K43" s="7">
         <v>53</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="8">
+      <c r="L43" s="8"/>
+      <c r="M43" s="17">
         <v>35</v>
       </c>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8">
-        <v>50</v>
-      </c>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8">
+      <c r="N43" s="17"/>
+      <c r="O43" s="17">
+        <v>50</v>
+      </c>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17">
         <v>26</v>
       </c>
-      <c r="R43" s="12"/>
+      <c r="R43" s="18"/>
       <c r="S43" s="2"/>
       <c r="T43" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="7">
+      <c r="B44" s="16">
         <v>38</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="8">
+      <c r="C44" s="17"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="17">
         <v>20</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17">
         <v>0.01</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8">
+      <c r="H44" s="17"/>
+      <c r="I44" s="17">
         <v>12</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="13">
+      <c r="J44" s="17"/>
+      <c r="K44" s="7">
         <v>46</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="8">
+      <c r="L44" s="8"/>
+      <c r="M44" s="17">
         <v>31</v>
       </c>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8">
-        <v>50</v>
-      </c>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8">
+      <c r="N44" s="17"/>
+      <c r="O44" s="17">
+        <v>50</v>
+      </c>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17">
         <v>23</v>
       </c>
-      <c r="R44" s="12"/>
+      <c r="R44" s="18"/>
       <c r="S44" s="2"/>
       <c r="T44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="7">
+      <c r="B45" s="16">
         <v>39</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="8">
+      <c r="C45" s="17"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="17">
         <v>20</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17">
         <v>0.01</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8">
+      <c r="H45" s="17"/>
+      <c r="I45" s="17">
         <v>16</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="13">
+      <c r="J45" s="17"/>
+      <c r="K45" s="7">
         <v>53</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="8">
+      <c r="L45" s="8"/>
+      <c r="M45" s="17">
         <v>35</v>
       </c>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8">
-        <v>50</v>
-      </c>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8">
+      <c r="N45" s="17"/>
+      <c r="O45" s="17">
+        <v>50</v>
+      </c>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17">
         <v>26</v>
       </c>
-      <c r="R45" s="12"/>
+      <c r="R45" s="18"/>
       <c r="S45" s="2"/>
       <c r="T45" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+      <c r="B46" s="16">
         <v>40</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="8">
+      <c r="C46" s="17"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="17">
         <v>20</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8">
+      <c r="H46" s="17"/>
+      <c r="I46" s="17">
         <v>8</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="13">
+      <c r="J46" s="17"/>
+      <c r="K46" s="7">
         <v>53</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="8">
+      <c r="L46" s="8"/>
+      <c r="M46" s="17">
         <v>35</v>
       </c>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8">
-        <v>50</v>
-      </c>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8">
+      <c r="N46" s="17"/>
+      <c r="O46" s="17">
+        <v>50</v>
+      </c>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17">
         <v>26</v>
       </c>
-      <c r="R46" s="12"/>
+      <c r="R46" s="18"/>
       <c r="S46" s="2"/>
       <c r="T46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+      <c r="B47" s="16">
         <v>41</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="8">
+      <c r="C47" s="17"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="17">
         <v>20</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8">
+      <c r="H47" s="17"/>
+      <c r="I47" s="17">
         <v>12</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="13">
+      <c r="J47" s="17"/>
+      <c r="K47" s="7">
         <v>53</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="8">
+      <c r="L47" s="8"/>
+      <c r="M47" s="17">
         <v>35</v>
       </c>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8">
-        <v>50</v>
-      </c>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8">
+      <c r="N47" s="17"/>
+      <c r="O47" s="17">
+        <v>50</v>
+      </c>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17">
         <v>26</v>
       </c>
-      <c r="R47" s="12"/>
+      <c r="R47" s="18"/>
       <c r="S47" s="2"/>
       <c r="T47" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+      <c r="B48" s="16">
         <v>42</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="8">
+      <c r="C48" s="17"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="17">
         <v>20</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8">
+      <c r="H48" s="17"/>
+      <c r="I48" s="17">
         <v>16</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="13">
+      <c r="J48" s="17"/>
+      <c r="K48" s="7">
         <v>53</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="8">
+      <c r="L48" s="8"/>
+      <c r="M48" s="17">
         <v>35</v>
       </c>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8">
-        <v>50</v>
-      </c>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8">
+      <c r="N48" s="17"/>
+      <c r="O48" s="17">
+        <v>50</v>
+      </c>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17">
         <v>26</v>
       </c>
-      <c r="R48" s="12"/>
+      <c r="R48" s="18"/>
       <c r="S48" s="2"/>
       <c r="T48" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="7">
+      <c r="B49" s="16">
         <v>43</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="8">
+      <c r="C49" s="17"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="17">
         <v>20</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8">
+      <c r="H49" s="17"/>
+      <c r="I49" s="17">
         <v>8</v>
       </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="13">
+      <c r="J49" s="17"/>
+      <c r="K49" s="7">
         <v>53</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="8">
+      <c r="L49" s="8"/>
+      <c r="M49" s="17">
         <v>35</v>
       </c>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8">
-        <v>50</v>
-      </c>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8">
+      <c r="N49" s="17"/>
+      <c r="O49" s="17">
+        <v>50</v>
+      </c>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17">
         <v>26</v>
       </c>
-      <c r="R49" s="12"/>
+      <c r="R49" s="18"/>
       <c r="S49" s="2"/>
       <c r="T49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="7">
+      <c r="B50" s="16">
         <v>44</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="8">
+      <c r="C50" s="17"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="17">
         <v>20</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17">
         <v>12</v>
       </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="13">
+      <c r="J50" s="17"/>
+      <c r="K50" s="7">
         <v>53</v>
       </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="8">
+      <c r="L50" s="8"/>
+      <c r="M50" s="17">
         <v>35</v>
       </c>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8">
-        <v>50</v>
-      </c>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8">
+      <c r="N50" s="17"/>
+      <c r="O50" s="17">
+        <v>50</v>
+      </c>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17">
         <v>26</v>
       </c>
-      <c r="R50" s="12"/>
+      <c r="R50" s="18"/>
       <c r="S50" s="2"/>
       <c r="T50" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="7">
+      <c r="B51" s="16">
         <v>45</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="8">
+      <c r="C51" s="17"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="17">
         <v>20</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8">
+      <c r="H51" s="17"/>
+      <c r="I51" s="17">
         <v>16</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="13">
+      <c r="J51" s="17"/>
+      <c r="K51" s="7">
         <v>53</v>
       </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="8">
+      <c r="L51" s="8"/>
+      <c r="M51" s="17">
         <v>35</v>
       </c>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8">
-        <v>50</v>
-      </c>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8">
+      <c r="N51" s="17"/>
+      <c r="O51" s="17">
+        <v>50</v>
+      </c>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17">
         <v>26</v>
       </c>
-      <c r="R51" s="12"/>
+      <c r="R51" s="18"/>
       <c r="S51" s="2"/>
       <c r="T51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="7">
+      <c r="B52" s="16">
         <v>46</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="8">
+      <c r="C52" s="17"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="17">
         <v>30</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17">
         <v>0.01</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8">
+      <c r="H52" s="17"/>
+      <c r="I52" s="17">
         <v>8</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="13">
+      <c r="J52" s="17"/>
+      <c r="K52" s="7">
         <v>53</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="8">
+      <c r="L52" s="8"/>
+      <c r="M52" s="17">
         <v>35</v>
       </c>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8">
-        <v>50</v>
-      </c>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8">
+      <c r="N52" s="17"/>
+      <c r="O52" s="17">
+        <v>50</v>
+      </c>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17">
         <v>26</v>
       </c>
-      <c r="R52" s="12"/>
+      <c r="R52" s="18"/>
       <c r="S52" s="2"/>
       <c r="T52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="7">
+      <c r="B53" s="16">
         <v>47</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="8">
+      <c r="C53" s="17"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="17">
         <v>30</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17">
         <v>0.01</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8">
+      <c r="H53" s="17"/>
+      <c r="I53" s="17">
         <v>12</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="13">
+      <c r="J53" s="17"/>
+      <c r="K53" s="7">
         <v>46</v>
       </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="8">
+      <c r="L53" s="8"/>
+      <c r="M53" s="17">
         <v>31</v>
       </c>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8">
-        <v>50</v>
-      </c>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8">
+      <c r="N53" s="17"/>
+      <c r="O53" s="17">
+        <v>50</v>
+      </c>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17">
         <v>23</v>
       </c>
-      <c r="R53" s="12"/>
+      <c r="R53" s="18"/>
       <c r="S53" s="2"/>
       <c r="T53" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="7">
+      <c r="B54" s="16">
         <v>48</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="8">
+      <c r="C54" s="17"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="17">
         <v>30</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8">
+      <c r="F54" s="17"/>
+      <c r="G54" s="17">
         <v>0.01</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8">
+      <c r="H54" s="17"/>
+      <c r="I54" s="17">
         <v>16</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="13">
+      <c r="J54" s="17"/>
+      <c r="K54" s="7">
         <v>53</v>
       </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="8">
+      <c r="L54" s="8"/>
+      <c r="M54" s="17">
         <v>35</v>
       </c>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8">
-        <v>50</v>
-      </c>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8">
+      <c r="N54" s="17"/>
+      <c r="O54" s="17">
+        <v>50</v>
+      </c>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17">
         <v>26</v>
       </c>
-      <c r="R54" s="12"/>
+      <c r="R54" s="18"/>
       <c r="S54" s="2"/>
       <c r="T54" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="7">
+      <c r="B55" s="16">
         <v>49</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="8">
+      <c r="C55" s="17"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="17">
         <v>30</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8">
+      <c r="F55" s="17"/>
+      <c r="G55" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8">
+      <c r="H55" s="17"/>
+      <c r="I55" s="17">
         <v>8</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="13">
+      <c r="J55" s="17"/>
+      <c r="K55" s="7">
         <v>46</v>
       </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="8">
+      <c r="L55" s="8"/>
+      <c r="M55" s="17">
         <v>31</v>
       </c>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8">
-        <v>50</v>
-      </c>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8">
+      <c r="N55" s="17"/>
+      <c r="O55" s="17">
+        <v>50</v>
+      </c>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17">
         <v>23</v>
       </c>
-      <c r="R55" s="12"/>
+      <c r="R55" s="18"/>
       <c r="S55" s="2"/>
       <c r="T55" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="7">
-        <v>50</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="8">
+      <c r="B56" s="16">
+        <v>50</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="17">
         <v>30</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8">
+      <c r="F56" s="17"/>
+      <c r="G56" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17">
         <v>12</v>
       </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="13">
+      <c r="J56" s="17"/>
+      <c r="K56" s="7">
         <v>46</v>
       </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="8">
+      <c r="L56" s="8"/>
+      <c r="M56" s="17">
         <v>31</v>
       </c>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8">
-        <v>50</v>
-      </c>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8">
+      <c r="N56" s="17"/>
+      <c r="O56" s="17">
+        <v>50</v>
+      </c>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17">
         <v>23</v>
       </c>
-      <c r="R56" s="12"/>
+      <c r="R56" s="18"/>
       <c r="S56" s="2"/>
       <c r="T56" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="7">
+      <c r="B57" s="16">
         <v>51</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="8">
+      <c r="C57" s="17"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="17">
         <v>30</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17">
         <v>1E-3</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8">
+      <c r="H57" s="17"/>
+      <c r="I57" s="17">
         <v>16</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="13">
+      <c r="J57" s="17"/>
+      <c r="K57" s="7">
         <v>53</v>
       </c>
-      <c r="L57" s="14"/>
-      <c r="M57" s="8">
+      <c r="L57" s="8"/>
+      <c r="M57" s="17">
         <v>35</v>
       </c>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8">
-        <v>50</v>
-      </c>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8">
+      <c r="N57" s="17"/>
+      <c r="O57" s="17">
+        <v>50</v>
+      </c>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17">
         <v>26</v>
       </c>
-      <c r="R57" s="12"/>
+      <c r="R57" s="18"/>
       <c r="S57" s="2"/>
       <c r="T57" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="7">
+      <c r="B58" s="16">
         <v>52</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="8">
+      <c r="C58" s="17"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="17">
         <v>30</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8">
+      <c r="H58" s="17"/>
+      <c r="I58" s="17">
         <v>8</v>
       </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="13">
+      <c r="J58" s="17"/>
+      <c r="K58" s="7">
         <v>53</v>
       </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="8">
+      <c r="L58" s="8"/>
+      <c r="M58" s="17">
         <v>35</v>
       </c>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8">
-        <v>50</v>
-      </c>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8">
+      <c r="N58" s="17"/>
+      <c r="O58" s="17">
+        <v>50</v>
+      </c>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17">
         <v>26</v>
       </c>
-      <c r="R58" s="12"/>
+      <c r="R58" s="18"/>
       <c r="S58" s="2"/>
       <c r="T58" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="7">
+      <c r="B59" s="16">
         <v>53</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="8">
+      <c r="C59" s="17"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="17">
         <v>30</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17">
         <v>1E-4</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8">
+      <c r="H59" s="17"/>
+      <c r="I59" s="17">
         <v>12</v>
       </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="13">
+      <c r="J59" s="17"/>
+      <c r="K59" s="7">
         <v>53</v>
       </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="8">
+      <c r="L59" s="8"/>
+      <c r="M59" s="17">
         <v>35</v>
       </c>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8">
-        <v>50</v>
-      </c>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8">
+      <c r="N59" s="17"/>
+      <c r="O59" s="17">
+        <v>50</v>
+      </c>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17">
         <v>26</v>
       </c>
-      <c r="R59" s="12"/>
+      <c r="R59" s="18"/>
       <c r="S59" s="2"/>
       <c r="T59" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="35">
+      <c r="B60" s="11">
         <v>54</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="36">
+      <c r="C60" s="12"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="12">
         <v>30</v>
       </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12">
         <v>1E-4</v>
       </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36">
+      <c r="H60" s="12"/>
+      <c r="I60" s="12">
         <v>16</v>
       </c>
-      <c r="J60" s="36"/>
-      <c r="K60" s="13">
+      <c r="J60" s="12"/>
+      <c r="K60" s="7">
         <v>53</v>
       </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="8">
+      <c r="L60" s="8"/>
+      <c r="M60" s="17">
         <v>35</v>
       </c>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8">
-        <v>50</v>
-      </c>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8">
+      <c r="N60" s="17"/>
+      <c r="O60" s="17">
+        <v>50</v>
+      </c>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17">
         <v>26</v>
       </c>
-      <c r="R60" s="12"/>
+      <c r="R60" s="18"/>
       <c r="S60" s="2"/>
       <c r="T60" t="s">
         <v>82</v>
@@ -6530,6 +6531,428 @@
     </row>
   </sheetData>
   <mergeCells count="446">
+    <mergeCell ref="B3:R5"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:D33"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:D60"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="K36:L36"/>
@@ -6554,428 +6977,6 @@
     <mergeCell ref="Q46:R46"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:D60"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:D33"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B3:R5"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
